--- a/data/trans_orig/P58-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P58-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>47647</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33269</v>
+        <v>33984</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67230</v>
+        <v>66263</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08156751927287295</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05695413330463635</v>
+        <v>0.05817723709251282</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1150917620080923</v>
+        <v>0.1134368481850914</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -765,19 +765,19 @@
         <v>83877</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63559</v>
+        <v>64078</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107161</v>
+        <v>107245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09094004065220512</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06891068237926111</v>
+        <v>0.06947434868313604</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1161845200649959</v>
+        <v>0.1162755921879976</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -786,19 +786,19 @@
         <v>131524</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106834</v>
+        <v>105388</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>160534</v>
+        <v>161105</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08730580878150233</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07091672046108172</v>
+        <v>0.0699567409835245</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1065625546922564</v>
+        <v>0.1069417730767465</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>44933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31268</v>
+        <v>31515</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63814</v>
+        <v>65163</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07692085224285983</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05352869133638193</v>
+        <v>0.05395176464958634</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1092446516955083</v>
+        <v>0.1115542365738221</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -836,19 +836,19 @@
         <v>72399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55484</v>
+        <v>57069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>91148</v>
+        <v>91859</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07849552282067108</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06015632477702612</v>
+        <v>0.06187472153197205</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09882365934764427</v>
+        <v>0.0995944383333016</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>87</v>
@@ -857,19 +857,19 @@
         <v>117332</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>95830</v>
+        <v>95976</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>142792</v>
+        <v>141354</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07788493813719849</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06361224719426777</v>
+        <v>0.06370923016077769</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09478536899534411</v>
+        <v>0.09383083333231607</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>491561</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>469407</v>
+        <v>466337</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>511496</v>
+        <v>511434</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8415116284842672</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8035845737664448</v>
+        <v>0.7983290427432157</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8756381253056146</v>
+        <v>0.8755324353921432</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>771</v>
@@ -907,19 +907,19 @@
         <v>766057</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>740670</v>
+        <v>739868</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>792108</v>
+        <v>789797</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8305644365271238</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8030400343217303</v>
+        <v>0.8021699870091761</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8588093733961317</v>
+        <v>0.8563037047025014</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1288</v>
@@ -928,19 +928,19 @@
         <v>1257618</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1219557</v>
+        <v>1222650</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1289417</v>
+        <v>1287860</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8348092530812992</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8095438976978799</v>
+        <v>0.8115974041612467</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8559172164944189</v>
+        <v>0.854883835228616</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>80103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>61058</v>
+        <v>61706</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101438</v>
+        <v>104832</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07431405285146085</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05664565579386859</v>
+        <v>0.05724696166630638</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09410782489398307</v>
+        <v>0.09725610248748025</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -1053,19 +1053,19 @@
         <v>67202</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51225</v>
+        <v>50274</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>89170</v>
+        <v>88708</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06354544149264071</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04843794415698764</v>
+        <v>0.04753907699199483</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0843187709962242</v>
+        <v>0.08388149780343561</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>92</v>
@@ -1074,19 +1074,19 @@
         <v>147304</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>122676</v>
+        <v>120501</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>179289</v>
+        <v>176164</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06898107289544803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05744795391785429</v>
+        <v>0.05642952033720796</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08395913066213449</v>
+        <v>0.08249550468815581</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>75773</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>56249</v>
+        <v>55978</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>99978</v>
+        <v>98515</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07029737366957189</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05218379652191758</v>
+        <v>0.05193233161290273</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09275285633735643</v>
+        <v>0.09139609350977067</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>60</v>
@@ -1124,19 +1124,19 @@
         <v>70649</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>54253</v>
+        <v>55964</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>89767</v>
+        <v>89396</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0668048424693697</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05130124986621782</v>
+        <v>0.0529188150020548</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08488313988759953</v>
+        <v>0.08453236287204022</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>105</v>
@@ -1145,19 +1145,19 @@
         <v>146422</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>121781</v>
+        <v>122328</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>173125</v>
+        <v>175694</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06856775429100902</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05702874839223369</v>
+        <v>0.05728485777947446</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08107263077003694</v>
+        <v>0.08227547813406293</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>922018</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>893771</v>
+        <v>893915</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>948700</v>
+        <v>949883</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8553885734789672</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8291825371949327</v>
+        <v>0.8293162330515439</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8801422075859562</v>
+        <v>0.8812399085401256</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>926</v>
@@ -1195,19 +1195,19 @@
         <v>919688</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>893256</v>
+        <v>894627</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>942401</v>
+        <v>943093</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8696497160379896</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8446560331752855</v>
+        <v>0.8459528943468838</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8911270907895312</v>
+        <v>0.8917817260271182</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1884</v>
@@ -1216,19 +1216,19 @@
         <v>1841706</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1805091</v>
+        <v>1805223</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1876591</v>
+        <v>1880695</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.862451172813543</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8453050557604227</v>
+        <v>0.8453664380829199</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8787876795036254</v>
+        <v>0.8807094945526369</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>47708</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33480</v>
+        <v>32590</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>67359</v>
+        <v>66385</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04253574291953565</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02985025690225676</v>
+        <v>0.02905678108845683</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0600568054111835</v>
+        <v>0.05918789376299449</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -1341,19 +1341,19 @@
         <v>55679</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40081</v>
+        <v>39718</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>74394</v>
+        <v>77086</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05601890953979984</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04032539444843615</v>
+        <v>0.03996051821742483</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0748475293049201</v>
+        <v>0.07755626162588099</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>65</v>
@@ -1362,19 +1362,19 @@
         <v>103387</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>81203</v>
+        <v>82756</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>130563</v>
+        <v>131466</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04887052797867736</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03838406575389201</v>
+        <v>0.03911808155661502</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0617164959991864</v>
+        <v>0.06214304986994359</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>99429</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77624</v>
+        <v>76903</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122800</v>
+        <v>125316</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08864999376254562</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06920893831411756</v>
+        <v>0.06856541800337047</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.109487423490511</v>
+        <v>0.1117302460236804</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -1412,19 +1412,19 @@
         <v>79423</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63737</v>
+        <v>62354</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98711</v>
+        <v>98252</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07990763158059007</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06412532932648313</v>
+        <v>0.06273442313047428</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09931259674073153</v>
+        <v>0.0988512984220461</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>125</v>
@@ -1433,19 +1433,19 @@
         <v>178853</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>151180</v>
+        <v>149179</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>209723</v>
+        <v>209780</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08454257694485057</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07146185828263067</v>
+        <v>0.07051584387025751</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09913489219578921</v>
+        <v>0.09916150991557922</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>974457</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>945096</v>
+        <v>943306</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1000542</v>
+        <v>999462</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8688142633179188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8426365352556152</v>
+        <v>0.8410402773200132</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8920710254530128</v>
+        <v>0.8911084324649317</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>873</v>
@@ -1483,19 +1483,19 @@
         <v>858836</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>834930</v>
+        <v>831081</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>882908</v>
+        <v>882001</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8640734588796101</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8400216987397258</v>
+        <v>0.8361484352991756</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8882918861859982</v>
+        <v>0.8873791528228812</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1883</v>
@@ -1504,19 +1504,19 @@
         <v>1833294</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1797328</v>
+        <v>1794874</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1867474</v>
+        <v>1869071</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.866586895076472</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8495861294859756</v>
+        <v>0.84842603180726</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.882743391789835</v>
+        <v>0.8834983780370035</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>25470</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14926</v>
+        <v>15718</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39620</v>
+        <v>40581</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05695549054396173</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03337576868418073</v>
+        <v>0.03514768417919353</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08859662499264603</v>
+        <v>0.09074567294436399</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1629,19 +1629,19 @@
         <v>13099</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6212</v>
+        <v>6308</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24411</v>
+        <v>23863</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03839584696062816</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01820747604558943</v>
+        <v>0.01848979373128934</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07155363987284145</v>
+        <v>0.06994575935454733</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1650,19 +1650,19 @@
         <v>38570</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25973</v>
+        <v>25210</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56435</v>
+        <v>54865</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04892389161744842</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03294553202080393</v>
+        <v>0.03197825257587328</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07158514134812381</v>
+        <v>0.06959380695084304</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>48419</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34427</v>
+        <v>33111</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>68317</v>
+        <v>68433</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1082719820610777</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07698435663141207</v>
+        <v>0.07403999262101359</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1527650872283487</v>
+        <v>0.1530249491206056</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -1700,19 +1700,19 @@
         <v>24651</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15845</v>
+        <v>15538</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37024</v>
+        <v>36275</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07225597492700368</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04644452555303911</v>
+        <v>0.04554612525087096</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1085236510569851</v>
+        <v>0.1063295461053635</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>50</v>
@@ -1721,19 +1721,19 @@
         <v>73070</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>55310</v>
+        <v>56016</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>96554</v>
+        <v>97001</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09268622348028881</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07015882548125359</v>
+        <v>0.07105413532015699</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1224747445622421</v>
+        <v>0.1230415518796942</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>373310</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>352093</v>
+        <v>351249</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>389519</v>
+        <v>390936</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8347725273949606</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7873276410602154</v>
+        <v>0.7854413075483632</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8710164037939474</v>
+        <v>0.8741863482606536</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>310</v>
@@ -1771,19 +1771,19 @@
         <v>303408</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>289147</v>
+        <v>288182</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>315097</v>
+        <v>314870</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8893481781123682</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8475467844459708</v>
+        <v>0.8447178971643122</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.923610479923783</v>
+        <v>0.9229437392915637</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>701</v>
@@ -1792,19 +1792,19 @@
         <v>676719</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>651973</v>
+        <v>651122</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>699011</v>
+        <v>699400</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8583898849022628</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.827001804265061</v>
+        <v>0.8259221516709808</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8866666113657502</v>
+        <v>0.8871602554150062</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>200928</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>169644</v>
+        <v>169094</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>238523</v>
+        <v>234320</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06219082970580242</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05250773285629</v>
+        <v>0.05233769906972159</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07382704891198047</v>
+        <v>0.07252627416589924</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>138</v>
@@ -1917,19 +1917,19 @@
         <v>219857</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>187284</v>
+        <v>184049</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>257913</v>
+        <v>252671</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06632255398348619</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05649645261072606</v>
+        <v>0.05552069422531864</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07780244264795252</v>
+        <v>0.07622114482613576</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>263</v>
@@ -1938,19 +1938,19 @@
         <v>420785</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>374232</v>
+        <v>379524</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>472325</v>
+        <v>470090</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06428324638190526</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05717131581786469</v>
+        <v>0.05797978627207188</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07215692192318679</v>
+        <v>0.07181557686849094</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>268554</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>230479</v>
+        <v>231652</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>310191</v>
+        <v>313498</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0831224009495075</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07133737362413677</v>
+        <v>0.0717005697897365</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0960097506955499</v>
+        <v>0.09703341021887638</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>208</v>
@@ -1988,19 +1988,19 @@
         <v>247122</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>216507</v>
+        <v>215417</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>279693</v>
+        <v>280717</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07454723221602499</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06531191816569677</v>
+        <v>0.06498320569112521</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08437271288970226</v>
+        <v>0.08468172994226904</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>367</v>
@@ -2009,19 +2009,19 @@
         <v>515676</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>467762</v>
+        <v>467006</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>567788</v>
+        <v>564981</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07877970408678432</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07145985523680615</v>
+        <v>0.07134445232556487</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08674084252995327</v>
+        <v>0.08631201073491264</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>2761347</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2706053</v>
+        <v>2712438</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2810509</v>
+        <v>2810278</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8546867693446901</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8375722336296213</v>
+        <v>0.8395487657099132</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8699033259813626</v>
+        <v>0.8698319695479421</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2880</v>
@@ -2059,19 +2059,19 @@
         <v>2847989</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2802074</v>
+        <v>2802337</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2888850</v>
+        <v>2891144</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8591302138004888</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8452792070895825</v>
+        <v>0.845358750008205</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8714565110027072</v>
+        <v>0.872148384188308</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5756</v>
@@ -2080,19 +2080,19 @@
         <v>5609336</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5544758</v>
+        <v>5541152</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5670364</v>
+        <v>5671360</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8569370495313104</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8470714791732281</v>
+        <v>0.8465205862798688</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8662602968761965</v>
+        <v>0.8664124055851127</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>99086</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79345</v>
+        <v>78410</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123090</v>
+        <v>120283</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09491592643695788</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07600540681570897</v>
+        <v>0.07510976341743093</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1179096293112306</v>
+        <v>0.1152205251997495</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -2445,19 +2445,19 @@
         <v>92127</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>74067</v>
+        <v>73922</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>112390</v>
+        <v>114223</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08226163495284625</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06613537850825243</v>
+        <v>0.06600606183066769</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1003542451331458</v>
+        <v>0.1019910182107381</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>153</v>
@@ -2466,19 +2466,19 @@
         <v>191213</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>161946</v>
+        <v>165116</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>217683</v>
+        <v>223442</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08836657518168754</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07484114286149729</v>
+        <v>0.0763062077460184</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1005990553290143</v>
+        <v>0.1032605682587526</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>81140</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59263</v>
+        <v>58950</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>107996</v>
+        <v>108312</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07772505969442758</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05676855721959333</v>
+        <v>0.0564689412324431</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1034504609314642</v>
+        <v>0.1037539344087731</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -2516,19 +2516,19 @@
         <v>100204</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75861</v>
+        <v>76525</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>127549</v>
+        <v>126879</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08947361407813152</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06773770046880549</v>
+        <v>0.06833069685915658</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.113890665016303</v>
+        <v>0.1132921429091339</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>93</v>
@@ -2537,19 +2537,19 @@
         <v>181344</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>149286</v>
+        <v>151573</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>215380</v>
+        <v>218991</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08380563793123633</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06899045143051133</v>
+        <v>0.07004736286504658</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09953506615979102</v>
+        <v>0.1012035056922471</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>863709</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>835381</v>
+        <v>835160</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>890721</v>
+        <v>892369</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8273590138686145</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8002230957256556</v>
+        <v>0.8000110208124022</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8532343624294149</v>
+        <v>0.8548124445554405</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>900</v>
@@ -2587,19 +2587,19 @@
         <v>927597</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>896198</v>
+        <v>896597</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>955145</v>
+        <v>958117</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8282647509690222</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8002278706963737</v>
+        <v>0.8005841575891625</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.852862806714369</v>
+        <v>0.8555163047077744</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1763</v>
@@ -2608,19 +2608,19 @@
         <v>1791306</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1746373</v>
+        <v>1749113</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1829720</v>
+        <v>1831362</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8278277868870761</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8070627317338935</v>
+        <v>0.8083290944843613</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8455803560498749</v>
+        <v>0.84633922911424</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>54397</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>38575</v>
+        <v>40220</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>71109</v>
+        <v>74026</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05567381660545936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03948022757717545</v>
+        <v>0.04116424872024895</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07277726375014414</v>
+        <v>0.07576282317806722</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>56</v>
@@ -2733,19 +2733,19 @@
         <v>66685</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51077</v>
+        <v>50556</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86093</v>
+        <v>84928</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06094066451978371</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04667701915886642</v>
+        <v>0.04620126938239183</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07867631939665064</v>
+        <v>0.07761241404718724</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>98</v>
@@ -2754,19 +2754,19 @@
         <v>121082</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>98204</v>
+        <v>99429</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>145568</v>
+        <v>147021</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05845623109640858</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04741072898016568</v>
+        <v>0.04800219317088896</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07027738567414615</v>
+        <v>0.0709787668635362</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>94232</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>72775</v>
+        <v>72350</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>123299</v>
+        <v>121780</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09644273026927698</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07448255149753502</v>
+        <v>0.07404812209509898</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1261919176641772</v>
+        <v>0.1246370637673615</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>57</v>
@@ -2804,19 +2804,19 @@
         <v>106279</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>82977</v>
+        <v>83298</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>135254</v>
+        <v>135882</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0971239486627237</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07582922692000513</v>
+        <v>0.07612241971330107</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.123603039304357</v>
+        <v>0.1241768744594787</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>102</v>
@@ -2825,19 +2825,19 @@
         <v>200511</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>169254</v>
+        <v>164270</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>242060</v>
+        <v>238215</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09680261002283361</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08171259571998851</v>
+        <v>0.07930632227961538</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1168618430293942</v>
+        <v>0.115005686778217</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>828444</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>798239</v>
+        <v>799153</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>853819</v>
+        <v>853986</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8478834531252637</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8169693361529263</v>
+        <v>0.8179048070251264</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8738540629344912</v>
+        <v>0.874025133576809</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>907</v>
@@ -2875,19 +2875,19 @@
         <v>921298</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>888196</v>
+        <v>891322</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>948947</v>
+        <v>948690</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8419353868174926</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8116848628554995</v>
+        <v>0.8145417104212704</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8672029100439436</v>
+        <v>0.8669679642312753</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1744</v>
@@ -2896,19 +2896,19 @@
         <v>1749742</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1706660</v>
+        <v>1710511</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1788908</v>
+        <v>1792201</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8447411588807578</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8239422883781681</v>
+        <v>0.8258009938349243</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8636497235801337</v>
+        <v>0.865239774464721</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>31773</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20853</v>
+        <v>21330</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>44994</v>
+        <v>45755</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03589729353029627</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02355963394103719</v>
+        <v>0.02409895210074789</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05083447794029449</v>
+        <v>0.05169400807675363</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -3021,19 +3021,19 @@
         <v>44231</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31657</v>
+        <v>31009</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>60426</v>
+        <v>59562</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05050412053667967</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0361470420993417</v>
+        <v>0.03540618519708646</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06899533924428439</v>
+        <v>0.06800881616125523</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>62</v>
@@ -3042,19 +3042,19 @@
         <v>76005</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>60113</v>
+        <v>59129</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>94968</v>
+        <v>97325</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0431620549401794</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03413716655058682</v>
+        <v>0.03357882060405743</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05393138537207433</v>
+        <v>0.05526967794288432</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>94377</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70353</v>
+        <v>71323</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122087</v>
+        <v>123031</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1066266687570744</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07948491123509616</v>
+        <v>0.08058097759410153</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1379335890116481</v>
+        <v>0.1390004030103737</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -3092,19 +3092,19 @@
         <v>75819</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52506</v>
+        <v>56187</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100332</v>
+        <v>99334</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08657096565189429</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05995181902477568</v>
+        <v>0.06415491356909625</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1145613353546135</v>
+        <v>0.1134213739887839</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -3113,19 +3113,19 @@
         <v>170195</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136614</v>
+        <v>138102</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>205540</v>
+        <v>207023</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09665188793007393</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07758158557372413</v>
+        <v>0.0784264586371286</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1167237973699543</v>
+        <v>0.1175658541598188</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>758965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>729505</v>
+        <v>729484</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>784784</v>
+        <v>782693</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8574760377126294</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.824191852116492</v>
+        <v>0.8241686009513165</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8866469112713532</v>
+        <v>0.8842839879378092</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>743</v>
@@ -3163,19 +3163,19 @@
         <v>755746</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>728851</v>
+        <v>729219</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>781272</v>
+        <v>777680</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.862924913811426</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8322157130587339</v>
+        <v>0.8326353858196441</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8920701942182226</v>
+        <v>0.8879692836302903</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1503</v>
@@ -3184,19 +3184,19 @@
         <v>1514711</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1475087</v>
+        <v>1472130</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1550424</v>
+        <v>1549816</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8601860571297467</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.837684174313549</v>
+        <v>0.8360046788113823</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8804669018852886</v>
+        <v>0.8801215070192719</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>22636</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13825</v>
+        <v>13015</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35045</v>
+        <v>34637</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04499919514744365</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0274841429746039</v>
+        <v>0.02587397970384832</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06966785620324159</v>
+        <v>0.06885851419872338</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -3309,19 +3309,19 @@
         <v>28331</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19395</v>
+        <v>19152</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41317</v>
+        <v>41195</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06257626925586539</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04283845557027074</v>
+        <v>0.04230293871814579</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09125959525608539</v>
+        <v>0.09099191288206684</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -3330,19 +3330,19 @@
         <v>50966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37541</v>
+        <v>37107</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>67659</v>
+        <v>71398</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05332532463154932</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03927852019118393</v>
+        <v>0.03882477454142529</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07079088699256052</v>
+        <v>0.07470259368135261</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>87515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66658</v>
+        <v>67530</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115090</v>
+        <v>110040</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1739780133798875</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1325144388816652</v>
+        <v>0.1342481715905975</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2287973395203556</v>
+        <v>0.218757353246581</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -3380,19 +3380,19 @@
         <v>68164</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48775</v>
+        <v>50880</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>89085</v>
+        <v>90095</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.150560671831621</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1077347894770969</v>
+        <v>0.1123832065409664</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1967705291846067</v>
+        <v>0.1990013350562504</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>80</v>
@@ -3401,19 +3401,19 @@
         <v>155679</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>129240</v>
+        <v>126946</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>186417</v>
+        <v>188334</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1628853925772605</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1352225210327759</v>
+        <v>0.1328225675245972</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1950460976046869</v>
+        <v>0.1970516439275944</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>392872</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>366798</v>
+        <v>370975</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>415177</v>
+        <v>416235</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7810227914726688</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7291867234426481</v>
+        <v>0.7374919003888171</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8253638144306198</v>
+        <v>0.8274665061701272</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>351</v>
@@ -3451,19 +3451,19 @@
         <v>356241</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>335176</v>
+        <v>333898</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>375765</v>
+        <v>377524</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7868630589125136</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7403351252682721</v>
+        <v>0.737512129853017</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8299873428649422</v>
+        <v>0.833871237553221</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>751</v>
@@ -3472,19 +3472,19 @@
         <v>749113</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>715312</v>
+        <v>714906</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>778393</v>
+        <v>780807</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7837892827911902</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7484240585802722</v>
+        <v>0.7479988376263988</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.814424496604999</v>
+        <v>0.8169503952089815</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>207892</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178129</v>
+        <v>178226</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>238206</v>
+        <v>239123</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06098075549531962</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05225044775584168</v>
+        <v>0.05227894341636461</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06987276489479553</v>
+        <v>0.07014152907534955</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>194</v>
@@ -3597,19 +3597,19 @@
         <v>231374</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>201733</v>
+        <v>201548</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>264319</v>
+        <v>262773</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06530967041126777</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05694290612497188</v>
+        <v>0.05689080906291084</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07460905433066443</v>
+        <v>0.07417263697720022</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>355</v>
@@ -3618,19 +3618,19 @@
         <v>439266</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>396942</v>
+        <v>395969</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>485280</v>
+        <v>483071</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06318680188772922</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05709866214573503</v>
+        <v>0.05695868550893362</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06980571044256922</v>
+        <v>0.06948790551091311</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>357263</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>311682</v>
+        <v>315387</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>407653</v>
+        <v>415351</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1047955363609555</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09142530373320301</v>
+        <v>0.09251214992414974</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1195763729092338</v>
+        <v>0.1218342354007883</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>189</v>
@@ -3668,19 +3668,19 @@
         <v>350466</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>307758</v>
+        <v>303604</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>395180</v>
+        <v>399824</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09892556290590891</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08687061455833892</v>
+        <v>0.08569794223604794</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1115470874186458</v>
+        <v>0.1128577171203497</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>361</v>
@@ -3689,19 +3689,19 @@
         <v>707729</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>642377</v>
+        <v>639017</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>780947</v>
+        <v>777951</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1018041553762337</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0924034802818962</v>
+        <v>0.09192018537126517</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1123362893342762</v>
+        <v>0.1119054014547387</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>2843990</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2785594</v>
+        <v>2782634</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2900996</v>
+        <v>2892405</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8342237081437249</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8170945655425185</v>
+        <v>0.8162263757628492</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8509452203882868</v>
+        <v>0.8484253136258361</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2901</v>
@@ -3739,19 +3739,19 @@
         <v>2960882</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2907561</v>
+        <v>2905258</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3008326</v>
+        <v>3010627</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8357647666828233</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8207139138873012</v>
+        <v>0.8200637675730839</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8491565962685477</v>
+        <v>0.8498061672847634</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5761</v>
@@ -3760,19 +3760,19 @@
         <v>5804872</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5726940</v>
+        <v>5731312</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5877024</v>
+        <v>5882610</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.835009042736037</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8237988845677907</v>
+        <v>0.8244277252180328</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8453878400229556</v>
+        <v>0.8461914317127766</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>80406</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63753</v>
+        <v>62995</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101434</v>
+        <v>101901</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07128239399507565</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05651861243863703</v>
+        <v>0.05584681602042691</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08992355760124125</v>
+        <v>0.0903377246827666</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>83</v>
@@ -4125,19 +4125,19 @@
         <v>89059</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>71606</v>
+        <v>71846</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110139</v>
+        <v>109825</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07070598847994657</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05684973904275449</v>
+        <v>0.0570405968818879</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08744198076858233</v>
+        <v>0.08719279104744064</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>144</v>
@@ -4146,19 +4146,19 @@
         <v>169465</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>142827</v>
+        <v>145662</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>196407</v>
+        <v>199940</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07097831016783497</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05982142420291238</v>
+        <v>0.06100862749920571</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08226280668449296</v>
+        <v>0.08374245616642217</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>95603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75417</v>
+        <v>73855</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>122732</v>
+        <v>121537</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08475446614555046</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06685957164594672</v>
+        <v>0.0654744095061789</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.108805088685943</v>
+        <v>0.107745870963539</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -4196,19 +4196,19 @@
         <v>108471</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>84105</v>
+        <v>83878</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>135097</v>
+        <v>134089</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08611777566847503</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06677337099010033</v>
+        <v>0.06659333675158068</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1072569976040056</v>
+        <v>0.1064566841482729</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>121</v>
@@ -4217,19 +4217,19 @@
         <v>204073</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>171100</v>
+        <v>172326</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>240050</v>
+        <v>240622</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08547368268072139</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07166325820149146</v>
+        <v>0.07217672761118409</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1005418836459826</v>
+        <v>0.1007815606420296</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>951988</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>918809</v>
+        <v>922730</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>976859</v>
+        <v>979827</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8439631398593739</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8145495562385485</v>
+        <v>0.8180254420108541</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8660124554375972</v>
+        <v>0.8686433321231706</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1040</v>
@@ -4267,19 +4267,19 @@
         <v>1062032</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1029801</v>
+        <v>1029691</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1090425</v>
+        <v>1091965</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8431762358515784</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8175871596189341</v>
+        <v>0.8175001241707364</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8657184685888596</v>
+        <v>0.8669406324986801</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1989</v>
@@ -4288,19 +4288,19 @@
         <v>2014020</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1972696</v>
+        <v>1972309</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2050987</v>
+        <v>2052630</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8435480071514436</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8262399029994898</v>
+        <v>0.8260778915125185</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8590313225134715</v>
+        <v>0.8597194990443314</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>43919</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30877</v>
+        <v>30458</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>60807</v>
+        <v>61306</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04832517599046812</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0339745403824499</v>
+        <v>0.0335131563265563</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06690732482245204</v>
+        <v>0.06745674619615803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -4413,19 +4413,19 @@
         <v>72006</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>56596</v>
+        <v>58046</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>91467</v>
+        <v>90148</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07154249329265773</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05623159940895245</v>
+        <v>0.05767225887907761</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09087895982705356</v>
+        <v>0.08956808643623997</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>99</v>
@@ -4434,19 +4434,19 @@
         <v>115925</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>95874</v>
+        <v>93853</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>139019</v>
+        <v>137933</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06052569569885217</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05005673334748813</v>
+        <v>0.0490019659394253</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07258324266441127</v>
+        <v>0.07201654468302425</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>61302</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>44404</v>
+        <v>43612</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>82912</v>
+        <v>80229</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06745216553441115</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04885877540113518</v>
+        <v>0.04798753911389076</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09122960712556245</v>
+        <v>0.08827753086786859</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>52</v>
@@ -4484,19 +4484,19 @@
         <v>86752</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>66433</v>
+        <v>67008</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>110398</v>
+        <v>111708</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0861940722238166</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06600562197023964</v>
+        <v>0.06657735235297482</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1096879107245746</v>
+        <v>0.1109895047116352</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>88</v>
@@ -4505,19 +4505,19 @@
         <v>148054</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>121670</v>
+        <v>121538</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>177776</v>
+        <v>179109</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07730089176581004</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06352537542925926</v>
+        <v>0.0634564826154075</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0928186320750508</v>
+        <v>0.0935150301374349</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>803604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>778658</v>
+        <v>779730</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>824640</v>
+        <v>824064</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8842226584751207</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8567748520053804</v>
+        <v>0.8579537497694389</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9073696988785748</v>
+        <v>0.9067350766678833</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>833</v>
@@ -4555,19 +4555,19 @@
         <v>847717</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>821326</v>
+        <v>821341</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>874164</v>
+        <v>873755</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8422634344835257</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8160423503372414</v>
+        <v>0.8160571689663103</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8685406216557214</v>
+        <v>0.8681341361634771</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1645</v>
@@ -4576,19 +4576,19 @@
         <v>1651321</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1615044</v>
+        <v>1612602</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1683502</v>
+        <v>1684302</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8621734125353377</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8432329926069863</v>
+        <v>0.8419576826532117</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8789754349517359</v>
+        <v>0.8793935535187267</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>42983</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29856</v>
+        <v>29798</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59174</v>
+        <v>59450</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05217941007979903</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03624307775188259</v>
+        <v>0.03617357737385477</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07183424241386946</v>
+        <v>0.0721686692669961</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -4701,19 +4701,19 @@
         <v>29080</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20044</v>
+        <v>19194</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42573</v>
+        <v>41541</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03771473170199781</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02599601853239718</v>
+        <v>0.02489320700025946</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05521431214327562</v>
+        <v>0.05387469771641788</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>59</v>
@@ -4722,19 +4722,19 @@
         <v>72064</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>55407</v>
+        <v>54681</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>91118</v>
+        <v>91363</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04518606120591596</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03474160116458697</v>
+        <v>0.03428641598568589</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05713407545655066</v>
+        <v>0.05728744295590567</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>94123</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72202</v>
+        <v>72377</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117700</v>
+        <v>117774</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1142609084388602</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08764888243760258</v>
+        <v>0.08786167148225693</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1428809912782032</v>
+        <v>0.1429713180360349</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -4772,19 +4772,19 @@
         <v>62124</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44574</v>
+        <v>44811</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83110</v>
+        <v>83627</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08056954372201688</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0578084655597608</v>
+        <v>0.0581162239491652</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1077868418943682</v>
+        <v>0.1084570665016598</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -4793,19 +4793,19 @@
         <v>156247</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129037</v>
+        <v>128026</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>190589</v>
+        <v>187908</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09797188621879367</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08090997691291434</v>
+        <v>0.08027622771659111</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1195052441070757</v>
+        <v>0.1178238415836065</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>686652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>661416</v>
+        <v>660256</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>711861</v>
+        <v>708998</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8335596814813409</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8029240763366634</v>
+        <v>0.8015157006465834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.864162013390524</v>
+        <v>0.8606860800618233</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>666</v>
@@ -4843,19 +4843,19 @@
         <v>679855</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>657390</v>
+        <v>655508</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>698978</v>
+        <v>699316</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8817157245759853</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8525804877441043</v>
+        <v>0.8501402680182832</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9065169682803097</v>
+        <v>0.9069554995401408</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1363</v>
@@ -4864,19 +4864,19 @@
         <v>1366507</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1332195</v>
+        <v>1332612</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1399524</v>
+        <v>1399122</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8568420525752903</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8353270747478815</v>
+        <v>0.8355884729495712</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8775444617846682</v>
+        <v>0.8772927341195914</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>39931</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28043</v>
+        <v>27233</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55351</v>
+        <v>56157</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07880535541324062</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05534508691632097</v>
+        <v>0.05374574671586704</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1092376617565583</v>
+        <v>0.1108296061166576</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -4989,19 +4989,19 @@
         <v>39351</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27269</v>
+        <v>27998</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53949</v>
+        <v>54402</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08035750109928269</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05568534759600151</v>
+        <v>0.05717488444552741</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1101669881800538</v>
+        <v>0.1110929192029744</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -5010,19 +5010,19 @@
         <v>79282</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>63155</v>
+        <v>62765</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99978</v>
+        <v>99748</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07956818472133928</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06338342848695894</v>
+        <v>0.06299225474877153</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1003396189802068</v>
+        <v>0.1001090477026035</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>61670</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44596</v>
+        <v>44950</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>81638</v>
+        <v>81366</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1217084305864899</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08801337447591059</v>
+        <v>0.08871054664058503</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1611175263645859</v>
+        <v>0.1605792714933252</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -5060,19 +5060,19 @@
         <v>65512</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47879</v>
+        <v>47984</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84849</v>
+        <v>86574</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1337795456585639</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09777328598131264</v>
+        <v>0.09798756991130488</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1732687804697922</v>
+        <v>0.1767899564645619</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>76</v>
@@ -5081,19 +5081,19 @@
         <v>127181</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>100404</v>
+        <v>102215</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>155937</v>
+        <v>154884</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1276409924852961</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1007668038603247</v>
+        <v>0.1025841882122206</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1565002255645698</v>
+        <v>0.1554438305528817</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>405100</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>382807</v>
+        <v>382449</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>426805</v>
+        <v>426917</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7994862140002694</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7554889765237489</v>
+        <v>0.7547824405236256</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8423206019052302</v>
+        <v>0.8425430449434016</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>381</v>
@@ -5131,19 +5131,19 @@
         <v>384836</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>363855</v>
+        <v>363890</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>404695</v>
+        <v>405695</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7858629532421534</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7430190504448683</v>
+        <v>0.7430906513514077</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8264179997269356</v>
+        <v>0.828460187700421</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>785</v>
@@ -5152,19 +5152,19 @@
         <v>789935</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>757928</v>
+        <v>759091</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>820717</v>
+        <v>818715</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7927908227933647</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7606675892088984</v>
+        <v>0.7618349765271589</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8236838166899414</v>
+        <v>0.8216751723698831</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>207239</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>177627</v>
+        <v>180226</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>242387</v>
+        <v>240695</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06154502901999457</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05275071860336104</v>
+        <v>0.05352270849311475</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07198298118139172</v>
+        <v>0.0714805453103065</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>210</v>
@@ -5277,19 +5277,19 @@
         <v>229495</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>201071</v>
+        <v>201975</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>257299</v>
+        <v>261675</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06507198670394923</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05701237164103867</v>
+        <v>0.05726886735427087</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07295550263533294</v>
+        <v>0.07419630157791952</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>367</v>
@@ -5298,19 +5298,19 @@
         <v>436735</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>396391</v>
+        <v>395379</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>485672</v>
+        <v>484301</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06334931005307308</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05749732062100992</v>
+        <v>0.0573505392239067</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07044778491751746</v>
+        <v>0.07024892566802522</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>312698</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>274646</v>
+        <v>273598</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>358064</v>
+        <v>357337</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09286369055034636</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08156302761335368</v>
+        <v>0.08125184902268964</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1063361755474334</v>
+        <v>0.1061204078891434</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>192</v>
@@ -5348,19 +5348,19 @@
         <v>322858</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>281823</v>
+        <v>281215</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>368702</v>
+        <v>370574</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09154441474138281</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07990926288628522</v>
+        <v>0.07973672100271764</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1045431878402483</v>
+        <v>0.1050738501482963</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>377</v>
@@ -5369,19 +5369,19 @@
         <v>635556</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>573026</v>
+        <v>575658</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>700942</v>
+        <v>693426</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09218879038629244</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08311858612969987</v>
+        <v>0.08350037228676646</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1016730642168008</v>
+        <v>0.1005829193877135</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>2847344</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2792703</v>
+        <v>2795886</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2894653</v>
+        <v>2893176</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.845591280429659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.829364093126387</v>
+        <v>0.8303094393063571</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8596409370880889</v>
+        <v>0.8592021519987326</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2920</v>
@@ -5419,19 +5419,19 @@
         <v>2974439</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2924161</v>
+        <v>2918981</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3022871</v>
+        <v>3020208</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8433835985546679</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8291277383302655</v>
+        <v>0.8276588996076955</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8571163152972291</v>
+        <v>0.8563612402444777</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5782</v>
@@ -5440,19 +5440,19 @@
         <v>5821783</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5745058</v>
+        <v>5744978</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5893538</v>
+        <v>5887413</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8444618995606344</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8333327801814316</v>
+        <v>0.8333211828325233</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8548701753100114</v>
+        <v>0.853981674679809</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>80883</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62808</v>
+        <v>62456</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101853</v>
+        <v>101961</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1621751746111592</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1259337271842632</v>
+        <v>0.125227517850417</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2042215718811224</v>
+        <v>0.2044383094427604</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>96</v>
@@ -5805,19 +5805,19 @@
         <v>77226</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61716</v>
+        <v>63657</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92896</v>
+        <v>94488</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.124319555274215</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09935155412817379</v>
+        <v>0.1024761513811292</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1495454880693245</v>
+        <v>0.1521088862761173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>163</v>
@@ -5826,19 +5826,19 @@
         <v>158109</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>134766</v>
+        <v>136324</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>183383</v>
+        <v>184946</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1411778726929622</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1203349771237313</v>
+        <v>0.1217261446664513</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1637457048184494</v>
+        <v>0.1651414400759927</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>19940</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11917</v>
+        <v>11441</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35160</v>
+        <v>33470</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03998020108846547</v>
+        <v>0.03998020108846548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02389387468603129</v>
+        <v>0.02293911046869906</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07049817425384786</v>
+        <v>0.06710863869292577</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -5876,19 +5876,19 @@
         <v>25037</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17085</v>
+        <v>16922</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37543</v>
+        <v>36714</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04030481293590613</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02750318482770928</v>
+        <v>0.02724181033940215</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06043723442147163</v>
+        <v>0.05910325374679957</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -5897,19 +5897,19 @@
         <v>44977</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32595</v>
+        <v>32473</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62770</v>
+        <v>62669</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04016025290339599</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02910501819227933</v>
+        <v>0.02899530975886846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05604834834801254</v>
+        <v>0.05595813905235052</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>397916</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>375584</v>
+        <v>374635</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>417901</v>
+        <v>417580</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7978446243003754</v>
+        <v>0.7978446243003755</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7530664598489135</v>
+        <v>0.7511642335741562</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8379146523725993</v>
+        <v>0.8372724911151004</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>728</v>
@@ -5947,19 +5947,19 @@
         <v>518925</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>499601</v>
+        <v>500720</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>535767</v>
+        <v>534339</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.8353756317898789</v>
+        <v>0.8353756317898786</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8042665776408457</v>
+        <v>0.8060685233953709</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8624878796304914</v>
+        <v>0.8601885794302144</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1100</v>
@@ -5968,19 +5968,19 @@
         <v>916842</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>888604</v>
+        <v>885013</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>941649</v>
+        <v>940183</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8186618744036418</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7934485076927812</v>
+        <v>0.7902413021718322</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8408125898308896</v>
+        <v>0.83950407523403</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>81776</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63322</v>
+        <v>62640</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>103725</v>
+        <v>102381</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08527278598833615</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0660298105878476</v>
+        <v>0.06531780152819809</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1081599356198752</v>
+        <v>0.1067585359545627</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>110</v>
@@ -6093,19 +6093,19 @@
         <v>91747</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75479</v>
+        <v>75587</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>113048</v>
+        <v>110216</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08236325164311825</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06775878295836768</v>
+        <v>0.06785603014514388</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1014851756822799</v>
+        <v>0.09894290122703361</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>176</v>
@@ -6114,19 +6114,19 @@
         <v>173524</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>148361</v>
+        <v>148505</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>203437</v>
+        <v>204770</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.08370928360195536</v>
+        <v>0.08370928360195533</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0715707944587556</v>
+        <v>0.07164031406858698</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09813998040021492</v>
+        <v>0.09878269167302864</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>27646</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18414</v>
+        <v>18984</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>41362</v>
+        <v>40100</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02882782640292422</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01920152976207479</v>
+        <v>0.01979595995662501</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04313003857189186</v>
+        <v>0.04181470788082827</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>52</v>
@@ -6164,19 +6164,19 @@
         <v>35835</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26452</v>
+        <v>27073</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46231</v>
+        <v>47963</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03216962969112226</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02374601351216983</v>
+        <v>0.0243042727912556</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04150232389858393</v>
+        <v>0.04305709404420512</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>78</v>
@@ -6185,19 +6185,19 @@
         <v>63481</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>49435</v>
+        <v>50332</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>80241</v>
+        <v>79830</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03062361803002789</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02384777945852375</v>
+        <v>0.02428070963851779</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03870882912117442</v>
+        <v>0.03851083011302506</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>849574</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>827021</v>
+        <v>825756</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>870803</v>
+        <v>871257</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8858993876087397</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8623819276905642</v>
+        <v>0.8610634954179257</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9080356296101323</v>
+        <v>0.9085100418053111</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1442</v>
@@ -6235,19 +6235,19 @@
         <v>986353</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>963181</v>
+        <v>965690</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1004853</v>
+        <v>1004493</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8854671186657594</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.86466515765984</v>
+        <v>0.8669176708602552</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9020752885770953</v>
+        <v>0.9017522131559573</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2259</v>
@@ -6256,19 +6256,19 @@
         <v>1835927</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1802658</v>
+        <v>1804382</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1863396</v>
+        <v>1863672</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8856670983680167</v>
+        <v>0.8856670983680168</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8696178063840178</v>
+        <v>0.8704495072094636</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8989186580777911</v>
+        <v>0.8990517592091634</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>58594</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>44657</v>
+        <v>43660</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>80359</v>
+        <v>77635</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0560553115050525</v>
+        <v>0.05605531150505251</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04272144200141115</v>
+        <v>0.04176767782326492</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07687643545777439</v>
+        <v>0.07427089288788358</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>73</v>
@@ -6381,19 +6381,19 @@
         <v>55478</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>43851</v>
+        <v>43352</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>70074</v>
+        <v>70117</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.05298432476410928</v>
+        <v>0.05298432476410927</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04187964504212667</v>
+        <v>0.0414034712570269</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06692387537958781</v>
+        <v>0.06696471902334293</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>122</v>
@@ -6402,19 +6402,19 @@
         <v>114073</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>95148</v>
+        <v>95307</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>138478</v>
+        <v>138704</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05451851719984056</v>
+        <v>0.05451851719984055</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0454737243348382</v>
+        <v>0.04554974467295146</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06618234710936897</v>
+        <v>0.06629033925498592</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>62818</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47531</v>
+        <v>48722</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80254</v>
+        <v>82065</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06009609023307024</v>
+        <v>0.06009609023307025</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04547129313586283</v>
+        <v>0.04661049873090845</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07677629432251304</v>
+        <v>0.07850854514901161</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -6452,19 +6452,19 @@
         <v>53913</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43345</v>
+        <v>42798</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67266</v>
+        <v>65795</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05148965095546542</v>
+        <v>0.05148965095546541</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04139635109996381</v>
+        <v>0.04087432388870365</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0642419062194113</v>
+        <v>0.06283740881637</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>143</v>
@@ -6473,19 +6473,19 @@
         <v>116732</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>98465</v>
+        <v>98975</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>140863</v>
+        <v>140853</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05578922472510873</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04705904188551588</v>
+        <v>0.04730265418811235</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0673221436228001</v>
+        <v>0.06731744225175997</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>923884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>898671</v>
+        <v>897161</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>945554</v>
+        <v>945227</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8838485982618773</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8597278386136308</v>
+        <v>0.8582837398803644</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9045792549028443</v>
+        <v>0.9042664098931049</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1360</v>
@@ -6523,19 +6523,19 @@
         <v>937678</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>919548</v>
+        <v>919909</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>955219</v>
+        <v>953208</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8955260242804252</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8782104791139071</v>
+        <v>0.8785551892358897</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9122780356741472</v>
+        <v>0.9103571682865594</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2278</v>
@@ -6544,19 +6544,19 @@
         <v>1861563</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1830231</v>
+        <v>1828918</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1889608</v>
+        <v>1889306</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8896922580750506</v>
+        <v>0.8896922580750507</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.874717865072858</v>
+        <v>0.8740903214490146</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9030959511114486</v>
+        <v>0.9029514012807923</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>68169</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50891</v>
+        <v>52899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89451</v>
+        <v>89958</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06985010041483948</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05214653975077754</v>
+        <v>0.05420424541204179</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09165677740606229</v>
+        <v>0.09217655451010155</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>86</v>
@@ -6669,19 +6669,19 @@
         <v>66466</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52538</v>
+        <v>52239</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>82938</v>
+        <v>83184</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07337766898161721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05800046052507794</v>
+        <v>0.05767144366072514</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09156189004413166</v>
+        <v>0.09183413436684448</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>145</v>
@@ -6690,19 +6690,19 @@
         <v>134635</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>113124</v>
+        <v>111064</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>160434</v>
+        <v>158045</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07154816320117442</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06011671883194919</v>
+        <v>0.05902180859963821</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08525812388483014</v>
+        <v>0.0839885501144411</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>70217</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>54228</v>
+        <v>55602</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>89132</v>
+        <v>93822</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07194893849680087</v>
+        <v>0.07194893849680085</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05556510831770104</v>
+        <v>0.05697390080759368</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09133020347132104</v>
+        <v>0.09613640103690446</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>92</v>
@@ -6740,19 +6740,19 @@
         <v>60256</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49025</v>
+        <v>48354</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75052</v>
+        <v>72972</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0665215294747083</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05412258720708058</v>
+        <v>0.05338205645923134</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08285568038331449</v>
+        <v>0.08056023583535037</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>160</v>
@@ -6761,19 +6761,19 @@
         <v>130473</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>110119</v>
+        <v>111194</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>153991</v>
+        <v>153759</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06933635106946352</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0585195943350152</v>
+        <v>0.05909105521051512</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08183437806029439</v>
+        <v>0.08171114667628059</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>837543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>811527</v>
+        <v>808420</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>861860</v>
+        <v>860630</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8582009610883599</v>
+        <v>0.8582009610883595</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8315432545100933</v>
+        <v>0.8283594571134721</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8831179455069834</v>
+        <v>0.8818576736001367</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1138</v>
@@ -6811,19 +6811,19 @@
         <v>779090</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>757687</v>
+        <v>759314</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>796658</v>
+        <v>796374</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8601008015436744</v>
+        <v>0.8601008015436745</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8364723021563921</v>
+        <v>0.8382685111833819</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8794959568801</v>
+        <v>0.879182218602485</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1958</v>
@@ -6832,19 +6832,19 @@
         <v>1616634</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1579635</v>
+        <v>1584957</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1646584</v>
+        <v>1645828</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.859115485729362</v>
+        <v>0.8591154857293621</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8394537614967296</v>
+        <v>0.8422817547664998</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8750317212092714</v>
+        <v>0.8746300603686327</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>289423</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254403</v>
+        <v>253447</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>328921</v>
+        <v>328866</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08319224054606077</v>
+        <v>0.08319224054606075</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07312626111561721</v>
+        <v>0.07285124303182164</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09454588275541025</v>
+        <v>0.09452983516381272</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>365</v>
@@ -6957,19 +6957,19 @@
         <v>290918</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262800</v>
+        <v>264122</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>321593</v>
+        <v>324989</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.078882157647184</v>
+        <v>0.07888215764718398</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07125803246608542</v>
+        <v>0.07161637783532036</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08719975523081637</v>
+        <v>0.08812065567577834</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>606</v>
@@ -6978,19 +6978,19 @@
         <v>580340</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>535057</v>
+        <v>532694</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>629297</v>
+        <v>627207</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08097434156548855</v>
+        <v>0.08097434156548854</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07465598943166464</v>
+        <v>0.07432631938195991</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08780522467989886</v>
+        <v>0.087513653442142</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>180621</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>154928</v>
+        <v>155358</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>210303</v>
+        <v>213268</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05191802248017321</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04453275782312366</v>
+        <v>0.04465631074951993</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06044990682041743</v>
+        <v>0.06130207142452817</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>260</v>
@@ -7028,19 +7028,19 @@
         <v>175041</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>153795</v>
+        <v>155028</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>197882</v>
+        <v>197842</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.047462250170233</v>
+        <v>0.04746225017023298</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04170148030692352</v>
+        <v>0.04203574089925059</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05365570030858236</v>
+        <v>0.05364467199298623</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>431</v>
@@ -7049,19 +7049,19 @@
         <v>355662</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>320502</v>
+        <v>323412</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>391524</v>
+        <v>393141</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04962515408396354</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0447194054051728</v>
+        <v>0.04512531000303294</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05462894129964676</v>
+        <v>0.0548545883874049</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>3008918</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2963207</v>
+        <v>2958520</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3051867</v>
+        <v>3049555</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8648897369737659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8517507083571364</v>
+        <v>0.850403323585764</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8772351303327814</v>
+        <v>0.8765705930885455</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4668</v>
@@ -7099,19 +7099,19 @@
         <v>3222046</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3185583</v>
+        <v>3183217</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3256912</v>
+        <v>3256108</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8736555921825833</v>
+        <v>0.8736555921825832</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8637685915982818</v>
+        <v>0.8631270351573965</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8831095255298395</v>
+        <v>0.8828913280487868</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7595</v>
@@ -7120,19 +7120,19 @@
         <v>6230964</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6174946</v>
+        <v>6168859</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6288043</v>
+        <v>6287290</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8694005043505481</v>
+        <v>0.8694005043505479</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8615843863609166</v>
+        <v>0.8607350240352198</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8773647315017495</v>
+        <v>0.8772596461211545</v>
       </c>
     </row>
     <row r="23">
